--- a/Per Chk List.xlsx
+++ b/Per Chk List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="14880" windowHeight="6570"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="14880" windowHeight="6570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Imp" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="440">
   <si>
     <t>Item</t>
   </si>
@@ -1398,9 +1398,6 @@
     <t>dell.com</t>
   </si>
   <si>
-    <t>Dell</t>
-  </si>
-  <si>
     <t>baina</t>
   </si>
   <si>
@@ -1483,6 +1480,12 @@
   </si>
   <si>
     <t>slickdeals</t>
+  </si>
+  <si>
+    <t>https://secured.dfs.dell.com/Accounts</t>
+  </si>
+  <si>
+    <t>Dell (Auto Day 11 - 230)</t>
   </si>
 </sst>
 </file>
@@ -2209,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2288,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,10 +3750,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C144" s="29" t="s">
         <v>5</v>
@@ -3761,13 +3764,15 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>16</v>
@@ -4747,7 +4752,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>376</v>
@@ -5267,36 +5272,36 @@
     </row>
     <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B98" s="68"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B101" s="68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="B102" s="69" t="s">
         <v>434</v>
-      </c>
-      <c r="B102" s="69" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5346,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,7 +5457,9 @@
       <c r="D3" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -5477,7 +5484,9 @@
       <c r="D4" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -5527,7 +5536,9 @@
       <c r="D6" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
@@ -5550,7 +5561,9 @@
         <v>157</v>
       </c>
       <c r="D7" s="30"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
@@ -5593,7 +5606,9 @@
       <c r="C9" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
@@ -5701,12 +5716,6 @@
       <c r="O13" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
@@ -5794,7 +5803,9 @@
       <c r="C18" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="30" t="s">
+        <v>163</v>
+      </c>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
@@ -5817,7 +5828,9 @@
       <c r="C19" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="30" t="s">
+        <v>163</v>
+      </c>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
@@ -5841,7 +5854,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5870,7 +5883,9 @@
       </c>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="30" t="s">
+        <v>163</v>
+      </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
@@ -6161,10 +6176,16 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="62"/>
       <c r="Q33" s="39"/>
     </row>
-    <row r="35" spans="16:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P35" t="s">
         <v>294</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P36" t="s">
         <v>288</v>
       </c>
@@ -6455,20 +6476,20 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
